--- a/Project2-Shiny/JieleiZhu/data/race_gender_data.xlsx
+++ b/Project2-Shiny/JieleiZhu/data/race_gender_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="11">
   <si>
     <t>Race</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>Median</t>
-  </si>
-  <si>
-    <t>Mean</t>
   </si>
   <si>
     <t>Asian female</t>
@@ -400,15 +397,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B58" sqref="B1:B1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,13 +415,10 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2">
         <v>2005</v>
@@ -432,13 +426,10 @@
       <c r="C2">
         <v>35093</v>
       </c>
-      <c r="D2">
-        <v>45208.800000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2006</v>
@@ -446,13 +437,10 @@
       <c r="C3">
         <v>37687.199999999997</v>
       </c>
-      <c r="D3">
-        <v>49218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>2007</v>
@@ -460,13 +448,10 @@
       <c r="C4">
         <v>40606.400000000001</v>
       </c>
-      <c r="D4">
-        <v>50985</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2008</v>
@@ -474,13 +459,10 @@
       <c r="C5">
         <v>42516.2</v>
       </c>
-      <c r="D5">
-        <v>52275.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>2009</v>
@@ -488,13 +470,10 @@
       <c r="C6">
         <v>41837.599999999999</v>
       </c>
-      <c r="D6">
-        <v>52427.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -502,13 +481,10 @@
       <c r="C7">
         <v>41669</v>
       </c>
-      <c r="D7">
-        <v>52414.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>2011</v>
@@ -516,13 +492,10 @@
       <c r="C8">
         <v>41177</v>
       </c>
-      <c r="D8">
-        <v>52579.199999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>2012</v>
@@ -530,13 +503,10 @@
       <c r="C9">
         <v>45173.131200000003</v>
       </c>
-      <c r="D9">
-        <v>57742.840600000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>2013</v>
@@ -544,13 +514,10 @@
       <c r="C10">
         <v>44555.8</v>
       </c>
-      <c r="D10">
-        <v>58328.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>2014</v>
@@ -558,13 +525,10 @@
       <c r="C11">
         <v>45313.599999999999</v>
       </c>
-      <c r="D11">
-        <v>60210.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>2005</v>
@@ -572,13 +536,10 @@
       <c r="C12">
         <v>44346.2</v>
       </c>
-      <c r="D12">
-        <v>61155.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>2006</v>
@@ -586,13 +547,10 @@
       <c r="C13">
         <v>48122</v>
       </c>
-      <c r="D13">
-        <v>64598.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>2007</v>
@@ -600,13 +558,10 @@
       <c r="C14">
         <v>46167.6</v>
       </c>
-      <c r="D14">
-        <v>59460.800000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>2008</v>
@@ -614,13 +569,10 @@
       <c r="C15">
         <v>47591.6</v>
       </c>
-      <c r="D15">
-        <v>63032</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>2009</v>
@@ -628,13 +580,10 @@
       <c r="C16">
         <v>49792.6</v>
       </c>
-      <c r="D16">
-        <v>72765.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>2010</v>
@@ -642,13 +591,10 @@
       <c r="C17">
         <v>48938.8</v>
       </c>
-      <c r="D17">
-        <v>62079</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>2011</v>
@@ -656,13 +602,10 @@
       <c r="C18">
         <v>52318.2</v>
       </c>
-      <c r="D18">
-        <v>64309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>2012</v>
@@ -670,13 +613,10 @@
       <c r="C19">
         <v>54364.076200000003</v>
       </c>
-      <c r="D19">
-        <v>71769.948199999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>2013</v>
@@ -684,13 +624,10 @@
       <c r="C20">
         <v>52168.4</v>
       </c>
-      <c r="D20">
-        <v>69696.600000000006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21">
         <v>2014</v>
@@ -698,13 +635,10 @@
       <c r="C21">
         <v>57539.6</v>
       </c>
-      <c r="D21">
-        <v>73796</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>2005</v>
@@ -712,13 +646,10 @@
       <c r="C22">
         <v>30368.2</v>
       </c>
-      <c r="D22">
-        <v>36364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23">
         <v>2006</v>
@@ -726,13 +657,10 @@
       <c r="C23">
         <v>30769.200000000001</v>
       </c>
-      <c r="D23">
-        <v>38427.800000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <v>2007</v>
@@ -740,13 +668,10 @@
       <c r="C24">
         <v>32694.6</v>
       </c>
-      <c r="D24">
-        <v>40396.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
         <v>2008</v>
@@ -754,13 +679,10 @@
       <c r="C25">
         <v>33336</v>
       </c>
-      <c r="D25">
-        <v>38574.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>2009</v>
@@ -768,13 +690,10 @@
       <c r="C26">
         <v>34084.400000000001</v>
       </c>
-      <c r="D26">
-        <v>39941</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27">
         <v>2010</v>
@@ -782,13 +701,10 @@
       <c r="C27">
         <v>34848.199999999997</v>
       </c>
-      <c r="D27">
-        <v>41128.400000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28">
         <v>2011</v>
@@ -796,13 +712,10 @@
       <c r="C28">
         <v>36008</v>
       </c>
-      <c r="D28">
-        <v>43020.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>2012</v>
@@ -810,13 +723,10 @@
       <c r="C29">
         <v>35298.970200000003</v>
       </c>
-      <c r="D29">
-        <v>41644.714</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30">
         <v>2013</v>
@@ -824,13 +734,10 @@
       <c r="C30">
         <v>35497.199999999997</v>
       </c>
-      <c r="D30">
-        <v>42278.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31">
         <v>2014</v>
@@ -838,13 +745,10 @@
       <c r="C31">
         <v>36041.199999999997</v>
       </c>
-      <c r="D31">
-        <v>43157.599999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32">
         <v>2005</v>
@@ -852,13 +756,10 @@
       <c r="C32">
         <v>35597.4</v>
       </c>
-      <c r="D32">
-        <v>42388</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>2006</v>
@@ -866,13 +767,10 @@
       <c r="C33">
         <v>35573</v>
       </c>
-      <c r="D33">
-        <v>43439.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34">
         <v>2007</v>
@@ -880,13 +778,10 @@
       <c r="C34">
         <v>36904.199999999997</v>
       </c>
-      <c r="D34">
-        <v>43077.599999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>2008</v>
@@ -894,13 +789,10 @@
       <c r="C35">
         <v>39038.400000000001</v>
       </c>
-      <c r="D35">
-        <v>47340.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>2009</v>
@@ -908,13 +800,10 @@
       <c r="C36">
         <v>38847.199999999997</v>
       </c>
-      <c r="D36">
-        <v>47385.599999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37">
         <v>2010</v>
@@ -922,13 +811,10 @@
       <c r="C37">
         <v>38748.800000000003</v>
       </c>
-      <c r="D37">
-        <v>48092.6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38">
         <v>2011</v>
@@ -936,13 +822,10 @@
       <c r="C38">
         <v>39922.800000000003</v>
       </c>
-      <c r="D38">
-        <v>52327.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39">
         <v>2012</v>
@@ -950,13 +833,10 @@
       <c r="C39">
         <v>40432.347199999997</v>
       </c>
-      <c r="D39">
-        <v>49635.669000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40">
         <v>2013</v>
@@ -964,13 +844,10 @@
       <c r="C40">
         <v>42421.4</v>
       </c>
-      <c r="D40">
-        <v>54694.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41">
         <v>2014</v>
@@ -978,13 +855,10 @@
       <c r="C41">
         <v>41856.6</v>
       </c>
-      <c r="D41">
-        <v>55309.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42">
         <v>2005</v>
@@ -992,13 +866,10 @@
       <c r="C42">
         <v>24308</v>
       </c>
-      <c r="D42">
-        <v>29839.200000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43">
         <v>2006</v>
@@ -1006,13 +877,10 @@
       <c r="C43">
         <v>25513.4</v>
       </c>
-      <c r="D43">
-        <v>31775.200000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44">
         <v>2007</v>
@@ -1020,13 +888,10 @@
       <c r="C44">
         <v>27028.6</v>
       </c>
-      <c r="D44">
-        <v>32459.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45">
         <v>2008</v>
@@ -1034,13 +899,10 @@
       <c r="C45">
         <v>27461.200000000001</v>
       </c>
-      <c r="D45">
-        <v>33383.800000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46">
         <v>2009</v>
@@ -1048,13 +910,10 @@
       <c r="C46">
         <v>27938.799999999999</v>
       </c>
-      <c r="D46">
-        <v>34793.199999999997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47">
         <v>2010</v>
@@ -1062,13 +921,10 @@
       <c r="C47">
         <v>28399.8</v>
       </c>
-      <c r="D47">
-        <v>33986</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48">
         <v>2011</v>
@@ -1076,13 +932,10 @@
       <c r="C48">
         <v>29279.8</v>
       </c>
-      <c r="D48">
-        <v>35476.800000000003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49">
         <v>2012</v>
@@ -1090,13 +943,10 @@
       <c r="C49">
         <v>29101.8056</v>
       </c>
-      <c r="D49">
-        <v>36430.898000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50">
         <v>2013</v>
@@ -1104,13 +954,10 @@
       <c r="C50">
         <v>30459.4</v>
       </c>
-      <c r="D50">
-        <v>37559</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51">
         <v>2014</v>
@@ -1118,13 +965,10 @@
       <c r="C51">
         <v>30164.799999999999</v>
       </c>
-      <c r="D51">
-        <v>38470.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52">
         <v>2005</v>
@@ -1132,13 +976,10 @@
       <c r="C52">
         <v>27688</v>
       </c>
-      <c r="D52">
-        <v>37271.800000000003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53">
         <v>2006</v>
@@ -1146,13 +987,10 @@
       <c r="C53">
         <v>29339.4</v>
       </c>
-      <c r="D53">
-        <v>37820.400000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54">
         <v>2007</v>
@@ -1160,13 +998,10 @@
       <c r="C54">
         <v>29978.2</v>
       </c>
-      <c r="D54">
-        <v>38737.800000000003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55">
         <v>2008</v>
@@ -1174,13 +1009,10 @@
       <c r="C55">
         <v>30805.599999999999</v>
       </c>
-      <c r="D55">
-        <v>39154</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56">
         <v>2009</v>
@@ -1188,13 +1020,10 @@
       <c r="C56">
         <v>31562</v>
       </c>
-      <c r="D56">
-        <v>40862.800000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57">
         <v>2010</v>
@@ -1202,13 +1031,10 @@
       <c r="C57">
         <v>32707.8</v>
       </c>
-      <c r="D57">
-        <v>41187.4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58">
         <v>2011</v>
@@ -1216,13 +1042,10 @@
       <c r="C58">
         <v>32737</v>
       </c>
-      <c r="D58">
-        <v>41309.599999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B59">
         <v>2012</v>
@@ -1230,13 +1053,10 @@
       <c r="C59">
         <v>33760.247799999997</v>
       </c>
-      <c r="D59">
-        <v>42611.852200000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60">
         <v>2013</v>
@@ -1244,13 +1064,10 @@
       <c r="C60">
         <v>33727.800000000003</v>
       </c>
-      <c r="D60">
-        <v>44317</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B61">
         <v>2014</v>
@@ -1258,13 +1075,10 @@
       <c r="C61">
         <v>35475.599999999999</v>
       </c>
-      <c r="D61">
-        <v>44533</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B62">
         <v>2005</v>
@@ -1272,13 +1086,10 @@
       <c r="C62">
         <v>34866.400000000001</v>
       </c>
-      <c r="D62">
-        <v>43733</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63">
         <v>2006</v>
@@ -1286,13 +1097,10 @@
       <c r="C63">
         <v>35963.599999999999</v>
       </c>
-      <c r="D63">
-        <v>46472.800000000003</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B64">
         <v>2007</v>
@@ -1300,13 +1108,10 @@
       <c r="C64">
         <v>37619.599999999999</v>
       </c>
-      <c r="D64">
-        <v>45820.4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65">
         <v>2008</v>
@@ -1314,13 +1119,10 @@
       <c r="C65">
         <v>38668.400000000001</v>
       </c>
-      <c r="D65">
-        <v>47663</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66">
         <v>2009</v>
@@ -1328,13 +1130,10 @@
       <c r="C66">
         <v>38587.599999999999</v>
       </c>
-      <c r="D66">
-        <v>48131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B67">
         <v>2010</v>
@@ -1342,13 +1141,10 @@
       <c r="C67">
         <v>40699.4</v>
       </c>
-      <c r="D67">
-        <v>50442.8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68">
         <v>2011</v>
@@ -1356,13 +1152,10 @@
       <c r="C68">
         <v>40024.400000000001</v>
       </c>
-      <c r="D68">
-        <v>50871.8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B69">
         <v>2012</v>
@@ -1370,13 +1163,10 @@
       <c r="C69">
         <v>41552.144999999997</v>
       </c>
-      <c r="D69">
-        <v>52000.817000000003</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B70">
         <v>2013</v>
@@ -1384,13 +1174,10 @@
       <c r="C70">
         <v>41946.8</v>
       </c>
-      <c r="D70">
-        <v>52768.4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B71">
         <v>2014</v>
@@ -1398,13 +1185,10 @@
       <c r="C71">
         <v>43037</v>
       </c>
-      <c r="D71">
-        <v>55235.6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72">
         <v>2005</v>
@@ -1412,13 +1196,10 @@
       <c r="C72">
         <v>44553.4</v>
       </c>
-      <c r="D72">
-        <v>60886</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73">
         <v>2006</v>
@@ -1426,13 +1207,10 @@
       <c r="C73">
         <v>47021.2</v>
       </c>
-      <c r="D73">
-        <v>62114.8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74">
         <v>2007</v>
@@ -1440,13 +1218,10 @@
       <c r="C74">
         <v>48910.8</v>
       </c>
-      <c r="D74">
-        <v>62385.4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75">
         <v>2008</v>
@@ -1454,13 +1229,10 @@
       <c r="C75">
         <v>50160.6</v>
       </c>
-      <c r="D75">
-        <v>66780.800000000003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76">
         <v>2009</v>
@@ -1468,13 +1240,10 @@
       <c r="C76">
         <v>51078.2</v>
       </c>
-      <c r="D76">
-        <v>68474.8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77">
         <v>2010</v>
@@ -1482,13 +1251,10 @@
       <c r="C77">
         <v>52746.8</v>
       </c>
-      <c r="D77">
-        <v>69144.800000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78">
         <v>2011</v>
@@ -1496,13 +1262,10 @@
       <c r="C78">
         <v>52780.4</v>
       </c>
-      <c r="D78">
-        <v>71574.2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B79">
         <v>2012</v>
@@ -1510,13 +1273,10 @@
       <c r="C79">
         <v>53166.813000000002</v>
       </c>
-      <c r="D79">
-        <v>71389.433999999994</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80">
         <v>2013</v>
@@ -1524,22 +1284,16 @@
       <c r="C80">
         <v>53914</v>
       </c>
-      <c r="D80">
-        <v>72867.399999999994</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81">
         <v>2014</v>
       </c>
       <c r="C81">
         <v>55299.4</v>
-      </c>
-      <c r="D81">
-        <v>74537.600000000006</v>
       </c>
     </row>
   </sheetData>
